--- a/schedules/schedule_teachers.xlsx
+++ b/schedules/schedule_teachers.xlsx
@@ -1010,7 +1010,7 @@
       </c>
       <c r="D4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" s="13" t="inlineStr">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="H4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I4" s="13" t="inlineStr">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="L4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M4" s="13" t="inlineStr">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="H5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I5" s="15" t="inlineStr">
@@ -1108,7 +1108,7 @@
       </c>
       <c r="P5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q5" s="15" t="inlineStr">
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q6" s="13" t="inlineStr">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="L7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M7" s="15" t="inlineStr">
@@ -1224,7 +1224,7 @@
       </c>
       <c r="P7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q7" s="15" t="inlineStr">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="T7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U7" s="15" t="inlineStr">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="L8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M8" s="13" t="inlineStr">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="T8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U8" s="13" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="L9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M9" s="15" t="inlineStr">
@@ -1372,7 +1372,7 @@
       </c>
       <c r="T9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U9" s="15" t="inlineStr">
@@ -1408,7 +1408,7 @@
       </c>
       <c r="L10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M10" s="13" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="P10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q10" s="13" t="inlineStr">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="T10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U10" s="13" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="L11" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M11" s="17" t="inlineStr">
@@ -1498,7 +1498,7 @@
       </c>
       <c r="P11" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q11" s="17" t="inlineStr">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="D5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E5" s="15" t="inlineStr">
@@ -1844,7 +1844,7 @@
       </c>
       <c r="H5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I5" s="15" t="inlineStr">
@@ -1922,7 +1922,7 @@
       </c>
       <c r="H6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I6" s="13" t="inlineStr">
@@ -2138,7 +2138,7 @@
       </c>
       <c r="T8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U8" s="13" t="inlineStr">
@@ -2630,7 +2630,7 @@
       </c>
       <c r="D6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" s="13" t="inlineStr">
@@ -2660,7 +2660,7 @@
       </c>
       <c r="T6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U6" s="13" t="inlineStr">
@@ -2688,7 +2688,7 @@
       </c>
       <c r="D7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" s="15" t="inlineStr">
@@ -2718,7 +2718,7 @@
       </c>
       <c r="T7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U7" s="15" t="inlineStr">
@@ -2750,7 +2750,7 @@
       </c>
       <c r="H8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I8" s="13" t="inlineStr">
@@ -2794,7 +2794,7 @@
       </c>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I9" s="15" t="inlineStr">
@@ -2812,7 +2812,7 @@
       </c>
       <c r="L9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M9" s="15" t="inlineStr">
@@ -2834,7 +2834,7 @@
       </c>
       <c r="T9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U9" s="15" t="inlineStr">
@@ -2870,7 +2870,7 @@
       </c>
       <c r="L10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M10" s="13" t="inlineStr">
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q11" s="15" t="inlineStr">
@@ -3646,7 +3646,7 @@
       </c>
       <c r="T7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U7" s="15" t="inlineStr">
@@ -4004,7 +4004,7 @@
       </c>
       <c r="D12" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E12" s="13" t="inlineStr">
@@ -4062,7 +4062,7 @@
       </c>
       <c r="D13" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E13" s="17" t="inlineStr">
@@ -4364,7 +4364,7 @@
       </c>
       <c r="P4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q4" s="13" t="inlineStr">
@@ -4436,7 +4436,7 @@
       </c>
       <c r="P5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q5" s="15" t="inlineStr">
@@ -4680,7 +4680,7 @@
       </c>
       <c r="P8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q8" s="13" t="inlineStr">
@@ -5152,7 +5152,7 @@
       </c>
       <c r="H4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I4" s="13" t="inlineStr">
@@ -5170,7 +5170,7 @@
       </c>
       <c r="L4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M4" s="13" t="inlineStr">
@@ -5214,7 +5214,7 @@
       </c>
       <c r="L5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M5" s="15" t="inlineStr">
@@ -5280,7 +5280,7 @@
       </c>
       <c r="D7" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" s="17" t="inlineStr">
@@ -5556,7 +5556,7 @@
       </c>
       <c r="D4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" s="13" t="inlineStr">
@@ -5586,7 +5586,7 @@
       </c>
       <c r="T4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U4" s="13" t="inlineStr">
@@ -5614,7 +5614,7 @@
       </c>
       <c r="D5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E5" s="15" t="inlineStr">
@@ -5644,7 +5644,7 @@
       </c>
       <c r="T5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U5" s="15" t="inlineStr">
@@ -5672,7 +5672,7 @@
       </c>
       <c r="D6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" s="13" t="inlineStr">
@@ -5690,7 +5690,7 @@
       </c>
       <c r="H6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I6" s="13" t="inlineStr">
@@ -5708,7 +5708,7 @@
       </c>
       <c r="L6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M6" s="13" t="inlineStr">
@@ -5726,7 +5726,7 @@
       </c>
       <c r="P6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q6" s="13" t="inlineStr">
@@ -5744,7 +5744,7 @@
       </c>
       <c r="T6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U6" s="13" t="inlineStr">
@@ -5772,7 +5772,7 @@
       </c>
       <c r="D7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" s="15" t="inlineStr">
@@ -5790,7 +5790,7 @@
       </c>
       <c r="H7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I7" s="15" t="inlineStr">
@@ -5808,7 +5808,7 @@
       </c>
       <c r="L7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M7" s="15" t="inlineStr">
@@ -5826,7 +5826,7 @@
       </c>
       <c r="P7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q7" s="15" t="inlineStr">
@@ -5844,7 +5844,7 @@
       </c>
       <c r="T7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U7" s="15" t="inlineStr">
@@ -5872,7 +5872,7 @@
       </c>
       <c r="D8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" s="13" t="inlineStr">
@@ -5890,7 +5890,7 @@
       </c>
       <c r="H8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I8" s="13" t="inlineStr">
@@ -5908,7 +5908,7 @@
       </c>
       <c r="L8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M8" s="13" t="inlineStr">
@@ -5926,7 +5926,7 @@
       </c>
       <c r="P8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q8" s="13" t="inlineStr">
@@ -5958,7 +5958,7 @@
       </c>
       <c r="D9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E9" s="15" t="inlineStr">
@@ -5976,7 +5976,7 @@
       </c>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I9" s="15" t="inlineStr">
@@ -5994,7 +5994,7 @@
       </c>
       <c r="L9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M9" s="15" t="inlineStr">
@@ -6012,7 +6012,7 @@
       </c>
       <c r="P9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q9" s="15" t="inlineStr">
@@ -6030,7 +6030,7 @@
       </c>
       <c r="T9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U9" s="15" t="inlineStr">
@@ -6058,7 +6058,7 @@
       </c>
       <c r="D10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E10" s="13" t="inlineStr">
@@ -6076,7 +6076,7 @@
       </c>
       <c r="H10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I10" s="13" t="inlineStr">
@@ -6094,7 +6094,7 @@
       </c>
       <c r="L10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M10" s="13" t="inlineStr">
@@ -6116,7 +6116,7 @@
       </c>
       <c r="T10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U10" s="13" t="inlineStr">
@@ -6144,7 +6144,7 @@
       </c>
       <c r="D11" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E11" s="17" t="inlineStr">
@@ -6166,7 +6166,7 @@
       </c>
       <c r="L11" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M11" s="17" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="P11" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q11" s="17" t="inlineStr">
@@ -6474,7 +6474,7 @@
       </c>
       <c r="P4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q4" s="13" t="inlineStr">
@@ -6492,7 +6492,7 @@
       </c>
       <c r="T4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U4" s="13" t="inlineStr">
@@ -6528,7 +6528,7 @@
       </c>
       <c r="L5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M5" s="15" t="inlineStr">
@@ -6546,7 +6546,7 @@
       </c>
       <c r="P5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q5" s="15" t="inlineStr">
@@ -6596,7 +6596,7 @@
       </c>
       <c r="H6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I6" s="13" t="inlineStr">
@@ -6650,7 +6650,7 @@
       </c>
       <c r="T6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U6" s="13" t="inlineStr">
@@ -6682,7 +6682,7 @@
       </c>
       <c r="H7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I7" s="15" t="inlineStr">
@@ -6700,7 +6700,7 @@
       </c>
       <c r="L7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M7" s="15" t="inlineStr">
@@ -6718,7 +6718,7 @@
       </c>
       <c r="P7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q7" s="15" t="inlineStr">
@@ -6754,7 +6754,7 @@
       </c>
       <c r="H8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I8" s="13" t="inlineStr">
@@ -6772,7 +6772,7 @@
       </c>
       <c r="L8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M8" s="13" t="inlineStr">
@@ -6790,7 +6790,7 @@
       </c>
       <c r="P8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q8" s="13" t="inlineStr">
@@ -6826,7 +6826,7 @@
       </c>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I9" s="15" t="inlineStr">
@@ -6844,7 +6844,7 @@
       </c>
       <c r="L9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M9" s="15" t="inlineStr">
@@ -6862,7 +6862,7 @@
       </c>
       <c r="P9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q9" s="15" t="inlineStr">
@@ -6894,7 +6894,7 @@
       </c>
       <c r="D10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E10" s="13" t="inlineStr">
@@ -6930,7 +6930,7 @@
       </c>
       <c r="L10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M10" s="13" t="inlineStr">
@@ -6948,7 +6948,7 @@
       </c>
       <c r="P10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q10" s="13" t="inlineStr">
@@ -6980,7 +6980,7 @@
       </c>
       <c r="D11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E11" s="15" t="inlineStr">
@@ -6998,7 +6998,7 @@
       </c>
       <c r="H11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I11" s="15" t="inlineStr">
@@ -7016,7 +7016,7 @@
       </c>
       <c r="L11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M11" s="15" t="inlineStr">
@@ -7034,7 +7034,7 @@
       </c>
       <c r="P11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q11" s="15" t="inlineStr">
@@ -7066,7 +7066,7 @@
       </c>
       <c r="D12" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E12" s="13" t="inlineStr">
@@ -7102,7 +7102,7 @@
       </c>
       <c r="L12" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M12" s="13" t="inlineStr">
@@ -7120,7 +7120,7 @@
       </c>
       <c r="P12" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q12" s="13" t="inlineStr">
@@ -7160,7 +7160,7 @@
       </c>
       <c r="L13" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M13" s="17" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="H4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I4" s="13" t="inlineStr">
@@ -7450,7 +7450,7 @@
       </c>
       <c r="L4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M4" s="13" t="inlineStr">
@@ -7550,7 +7550,7 @@
       </c>
       <c r="L5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M5" s="15" t="inlineStr">
@@ -7568,7 +7568,7 @@
       </c>
       <c r="P5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q5" s="15" t="inlineStr">
@@ -7586,7 +7586,7 @@
       </c>
       <c r="T5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U5" s="15" t="inlineStr">
@@ -7714,7 +7714,7 @@
       </c>
       <c r="D7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" s="15" t="inlineStr">
@@ -7732,7 +7732,7 @@
       </c>
       <c r="H7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I7" s="15" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="P7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q7" s="15" t="inlineStr">
@@ -7800,7 +7800,7 @@
       </c>
       <c r="D8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" s="13" t="inlineStr">
@@ -7836,7 +7836,7 @@
       </c>
       <c r="L8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M8" s="13" t="inlineStr">
@@ -7854,7 +7854,7 @@
       </c>
       <c r="P8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q8" s="13" t="inlineStr">
@@ -7872,7 +7872,7 @@
       </c>
       <c r="T8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U8" s="13" t="inlineStr">
@@ -7944,7 +7944,7 @@
       </c>
       <c r="T9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U9" s="15" t="inlineStr">
@@ -7972,7 +7972,7 @@
       </c>
       <c r="D10" s="20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E10" s="20" t="inlineStr">
@@ -8002,7 +8002,7 @@
       </c>
       <c r="T10" s="20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U10" s="20" t="inlineStr">
@@ -8438,7 +8438,7 @@
       </c>
       <c r="H6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I6" s="13" t="inlineStr">
@@ -8456,7 +8456,7 @@
       </c>
       <c r="L6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M6" s="13" t="inlineStr">
@@ -8474,7 +8474,7 @@
       </c>
       <c r="P6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q6" s="13" t="inlineStr">
@@ -8506,7 +8506,7 @@
       </c>
       <c r="D7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" s="15" t="inlineStr">
@@ -8552,7 +8552,7 @@
       </c>
       <c r="T7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U7" s="15" t="inlineStr">
@@ -8580,7 +8580,7 @@
       </c>
       <c r="D8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" s="13" t="inlineStr">
@@ -8610,7 +8610,7 @@
       </c>
       <c r="T8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U8" s="13" t="inlineStr">
@@ -8638,7 +8638,7 @@
       </c>
       <c r="D9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E9" s="15" t="inlineStr">
@@ -8714,7 +8714,7 @@
       </c>
       <c r="T10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U10" s="13" t="inlineStr">
@@ -8758,7 +8758,7 @@
       </c>
       <c r="T11" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U11" s="17" t="inlineStr">
@@ -9498,7 +9498,7 @@
       </c>
       <c r="P10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q10" s="13" t="inlineStr">
@@ -9530,7 +9530,7 @@
       </c>
       <c r="D11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E11" s="15" t="inlineStr">
@@ -10478,7 +10478,7 @@
       </c>
       <c r="H8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I8" s="13" t="inlineStr">
@@ -11840,7 +11840,7 @@
       </c>
       <c r="H4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I4" s="13" t="inlineStr">
@@ -12738,7 +12738,7 @@
       </c>
       <c r="H4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I4" s="13" t="inlineStr">
@@ -12760,7 +12760,7 @@
       </c>
       <c r="P4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q4" s="13" t="inlineStr">
@@ -12804,7 +12804,7 @@
       </c>
       <c r="P5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q5" s="15" t="inlineStr">
@@ -12848,7 +12848,7 @@
       </c>
       <c r="P6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q6" s="13" t="inlineStr">
@@ -12884,7 +12884,7 @@
       </c>
       <c r="H7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I7" s="15" t="inlineStr">
@@ -12906,7 +12906,7 @@
       </c>
       <c r="P7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q7" s="15" t="inlineStr">
@@ -12942,7 +12942,7 @@
       </c>
       <c r="H8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I8" s="13" t="inlineStr">
@@ -12964,7 +12964,7 @@
       </c>
       <c r="P8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q8" s="13" t="inlineStr">
@@ -13000,7 +13000,7 @@
       </c>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I9" s="15" t="inlineStr">
@@ -13022,7 +13022,7 @@
       </c>
       <c r="P9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q9" s="15" t="inlineStr">
@@ -13058,7 +13058,7 @@
       </c>
       <c r="H10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I10" s="13" t="inlineStr">
@@ -13080,7 +13080,7 @@
       </c>
       <c r="P10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q10" s="13" t="inlineStr">
@@ -13116,7 +13116,7 @@
       </c>
       <c r="H11" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I11" s="17" t="inlineStr">
@@ -13516,7 +13516,7 @@
       </c>
       <c r="H6" s="20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I6" s="20" t="inlineStr">
@@ -13534,7 +13534,7 @@
       </c>
       <c r="L6" s="20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M6" s="20" t="inlineStr">
@@ -13802,7 +13802,7 @@
       </c>
       <c r="D4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" s="13" t="inlineStr">
@@ -13822,7 +13822,7 @@
       </c>
       <c r="H4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I4" s="13" t="inlineStr">
@@ -13896,7 +13896,7 @@
       </c>
       <c r="D5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E5" s="15" t="inlineStr">
@@ -13916,7 +13916,7 @@
       </c>
       <c r="H5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I5" s="15" t="inlineStr">
@@ -13990,7 +13990,7 @@
       </c>
       <c r="D6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" s="13" t="inlineStr">
@@ -14010,7 +14010,7 @@
       </c>
       <c r="H6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I6" s="13" t="inlineStr">
@@ -14034,7 +14034,7 @@
       </c>
       <c r="P6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q6" s="13" t="inlineStr">
@@ -14068,7 +14068,7 @@
       </c>
       <c r="D7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" s="15" t="inlineStr">
@@ -14086,7 +14086,7 @@
       </c>
       <c r="H7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I7" s="15" t="inlineStr">
@@ -14128,7 +14128,7 @@
       </c>
       <c r="D8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" s="13" t="inlineStr">
@@ -14176,7 +14176,7 @@
       </c>
       <c r="T8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U8" s="13" t="inlineStr">
@@ -14254,7 +14254,7 @@
       </c>
       <c r="T9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U9" s="15" t="inlineStr">
@@ -14300,7 +14300,7 @@
       </c>
       <c r="T10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U10" s="13" t="inlineStr">
@@ -14346,7 +14346,7 @@
       </c>
       <c r="T11" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U11" s="17" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="L7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M7" s="15" t="inlineStr">
@@ -14794,7 +14794,7 @@
       </c>
       <c r="P7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q7" s="15" t="inlineStr">
@@ -14834,7 +14834,7 @@
       </c>
       <c r="L8" s="20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M8" s="20" t="inlineStr">
@@ -14852,7 +14852,7 @@
       </c>
       <c r="P8" s="20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q8" s="20" t="inlineStr">
@@ -16028,7 +16028,7 @@
       </c>
       <c r="H4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I4" s="13" t="inlineStr">
@@ -16046,7 +16046,7 @@
       </c>
       <c r="L4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M4" s="13" t="inlineStr">
@@ -16082,7 +16082,7 @@
       </c>
       <c r="T4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U4" s="13" t="inlineStr">
@@ -16114,7 +16114,7 @@
       </c>
       <c r="H5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I5" s="15" t="inlineStr">
@@ -16136,7 +16136,7 @@
       </c>
       <c r="P5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q5" s="15" t="inlineStr">
@@ -16154,7 +16154,7 @@
       </c>
       <c r="T5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U5" s="15" t="inlineStr">
@@ -16182,7 +16182,7 @@
       </c>
       <c r="D6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" s="13" t="inlineStr">
@@ -16204,7 +16204,7 @@
       </c>
       <c r="L6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M6" s="13" t="inlineStr">
@@ -16222,7 +16222,7 @@
       </c>
       <c r="P6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q6" s="13" t="inlineStr">
@@ -16240,7 +16240,7 @@
       </c>
       <c r="T6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U6" s="13" t="inlineStr">
@@ -16290,7 +16290,7 @@
       </c>
       <c r="L7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M7" s="15" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="T7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U7" s="15" t="inlineStr">
@@ -16340,7 +16340,7 @@
       </c>
       <c r="D8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" s="13" t="inlineStr">
@@ -16384,7 +16384,7 @@
       </c>
       <c r="T8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U8" s="13" t="inlineStr">
@@ -16434,7 +16434,7 @@
       </c>
       <c r="L9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M9" s="15" t="inlineStr">
@@ -16456,7 +16456,7 @@
       </c>
       <c r="T9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U9" s="15" t="inlineStr">
@@ -16484,7 +16484,7 @@
       </c>
       <c r="D10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E10" s="13" t="inlineStr">
@@ -16506,7 +16506,7 @@
       </c>
       <c r="L10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M10" s="13" t="inlineStr">
@@ -16528,7 +16528,7 @@
       </c>
       <c r="T10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U10" s="13" t="inlineStr">
@@ -16556,7 +16556,7 @@
       </c>
       <c r="D11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E11" s="15" t="inlineStr">
@@ -16578,7 +16578,7 @@
       </c>
       <c r="L11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M11" s="15" t="inlineStr">
@@ -16614,7 +16614,7 @@
       </c>
       <c r="D12" s="20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E12" s="20" t="inlineStr">
@@ -16636,7 +16636,7 @@
       </c>
       <c r="L12" s="20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M12" s="20" t="inlineStr">
@@ -16916,7 +16916,7 @@
       </c>
       <c r="P4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q4" s="13" t="inlineStr">
@@ -16934,7 +16934,7 @@
       </c>
       <c r="T4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U4" s="13" t="inlineStr">
@@ -16962,7 +16962,7 @@
       </c>
       <c r="D5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E5" s="15" t="inlineStr">
@@ -16984,7 +16984,7 @@
       </c>
       <c r="L5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M5" s="15" t="inlineStr">
@@ -17002,7 +17002,7 @@
       </c>
       <c r="P5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q5" s="15" t="inlineStr">
@@ -17020,7 +17020,7 @@
       </c>
       <c r="T5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U5" s="15" t="inlineStr">
@@ -17048,7 +17048,7 @@
       </c>
       <c r="D6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" s="13" t="inlineStr">
@@ -17074,7 +17074,7 @@
       </c>
       <c r="P6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q6" s="13" t="inlineStr">
@@ -17092,7 +17092,7 @@
       </c>
       <c r="T6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U6" s="13" t="inlineStr">
@@ -17120,7 +17120,7 @@
       </c>
       <c r="D7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" s="15" t="inlineStr">
@@ -17138,7 +17138,7 @@
       </c>
       <c r="H7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I7" s="15" t="inlineStr">
@@ -17156,7 +17156,7 @@
       </c>
       <c r="L7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M7" s="15" t="inlineStr">
@@ -17174,7 +17174,7 @@
       </c>
       <c r="P7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q7" s="15" t="inlineStr">
@@ -17192,7 +17192,7 @@
       </c>
       <c r="T7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U7" s="15" t="inlineStr">
@@ -17220,7 +17220,7 @@
       </c>
       <c r="D8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" s="13" t="inlineStr">
@@ -17242,7 +17242,7 @@
       </c>
       <c r="L8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M8" s="13" t="inlineStr">
@@ -17260,7 +17260,7 @@
       </c>
       <c r="P8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q8" s="13" t="inlineStr">
@@ -17278,7 +17278,7 @@
       </c>
       <c r="T8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U8" s="13" t="inlineStr">
@@ -17306,7 +17306,7 @@
       </c>
       <c r="D9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E9" s="15" t="inlineStr">
@@ -17332,7 +17332,7 @@
       </c>
       <c r="P9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q9" s="15" t="inlineStr">
@@ -17364,7 +17364,7 @@
       </c>
       <c r="D10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E10" s="13" t="inlineStr">
@@ -17394,7 +17394,7 @@
       </c>
       <c r="T10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U10" s="13" t="inlineStr">
@@ -17422,7 +17422,7 @@
       </c>
       <c r="D11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E11" s="15" t="inlineStr">
@@ -17448,7 +17448,7 @@
       </c>
       <c r="P11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q11" s="15" t="inlineStr">
@@ -17466,7 +17466,7 @@
       </c>
       <c r="T11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U11" s="15" t="inlineStr">
@@ -17506,7 +17506,7 @@
       </c>
       <c r="P12" s="20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q12" s="20" t="inlineStr">
@@ -17920,7 +17920,7 @@
       </c>
       <c r="D9" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E9" s="17" t="inlineStr">
@@ -18208,7 +18208,7 @@
       </c>
       <c r="P4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q4" s="13" t="inlineStr">
@@ -18254,7 +18254,7 @@
       </c>
       <c r="D5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E5" s="15" t="inlineStr">
@@ -18272,7 +18272,7 @@
       </c>
       <c r="H5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I5" s="15" t="inlineStr">
@@ -18296,7 +18296,7 @@
       </c>
       <c r="P5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q5" s="15" t="inlineStr">
@@ -18346,7 +18346,7 @@
       </c>
       <c r="H6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I6" s="13" t="inlineStr">
@@ -18422,7 +18422,7 @@
       </c>
       <c r="H7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I7" s="15" t="inlineStr">
@@ -18522,7 +18522,7 @@
       </c>
       <c r="T8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U8" s="13" t="inlineStr">
@@ -18586,7 +18586,7 @@
       </c>
       <c r="L9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M9" s="15" t="inlineStr">
@@ -18608,7 +18608,7 @@
       </c>
       <c r="T9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U9" s="15" t="inlineStr">
@@ -18680,7 +18680,7 @@
       </c>
       <c r="T10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U10" s="13" t="inlineStr">
@@ -19762,7 +19762,7 @@
       </c>
       <c r="H4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I4" s="13" t="inlineStr">
@@ -19848,7 +19848,7 @@
       </c>
       <c r="H5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I5" s="15" t="inlineStr">
@@ -19916,7 +19916,7 @@
       </c>
       <c r="D6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" s="13" t="inlineStr">
@@ -20000,7 +20000,7 @@
       </c>
       <c r="P7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q7" s="15" t="inlineStr">
@@ -20018,7 +20018,7 @@
       </c>
       <c r="T7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U7" s="15" t="inlineStr">
@@ -20046,7 +20046,7 @@
       </c>
       <c r="D8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" s="13" t="inlineStr">
@@ -20194,7 +20194,7 @@
       </c>
       <c r="H10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I10" s="13" t="inlineStr">
@@ -20216,7 +20216,7 @@
       </c>
       <c r="P10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q10" s="13" t="inlineStr">
@@ -20274,7 +20274,7 @@
       </c>
       <c r="P11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q11" s="15" t="inlineStr">
@@ -20318,7 +20318,7 @@
       </c>
       <c r="P12" s="20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q12" s="20" t="inlineStr">
@@ -21676,7 +21676,7 @@
       </c>
       <c r="D7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" s="15" t="inlineStr">
@@ -21776,7 +21776,7 @@
       </c>
       <c r="D8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" s="13" t="inlineStr">
@@ -21902,7 +21902,7 @@
       </c>
       <c r="P9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q9" s="15" t="inlineStr">
@@ -21974,7 +21974,7 @@
       </c>
       <c r="P10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q10" s="13" t="inlineStr">
@@ -22046,7 +22046,7 @@
       </c>
       <c r="P11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q11" s="15" t="inlineStr">
@@ -22358,7 +22358,7 @@
       </c>
       <c r="H4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I4" s="13" t="inlineStr">
@@ -22376,7 +22376,7 @@
       </c>
       <c r="L4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M4" s="13" t="inlineStr">
@@ -22456,7 +22456,7 @@
       </c>
       <c r="T5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U5" s="15" t="inlineStr">
@@ -22506,7 +22506,7 @@
       </c>
       <c r="L6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M6" s="13" t="inlineStr">
@@ -22542,7 +22542,7 @@
       </c>
       <c r="T6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U6" s="13" t="inlineStr">
@@ -22570,7 +22570,7 @@
       </c>
       <c r="D7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" s="15" t="inlineStr">
@@ -22628,7 +22628,7 @@
       </c>
       <c r="T7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U7" s="15" t="inlineStr">
@@ -22656,7 +22656,7 @@
       </c>
       <c r="D8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" s="13" t="inlineStr">
@@ -22714,7 +22714,7 @@
       </c>
       <c r="T8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U8" s="13" t="inlineStr">
@@ -22742,7 +22742,7 @@
       </c>
       <c r="D9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E9" s="15" t="inlineStr">
@@ -22818,7 +22818,7 @@
       </c>
       <c r="H10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I10" s="13" t="inlineStr">
@@ -22840,7 +22840,7 @@
       </c>
       <c r="P10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q10" s="13" t="inlineStr">
@@ -22884,7 +22884,7 @@
       </c>
       <c r="P11" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q11" s="17" t="inlineStr">
@@ -23340,7 +23340,7 @@
       </c>
       <c r="L8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M8" s="13" t="inlineStr">
@@ -23364,7 +23364,7 @@
       </c>
       <c r="T8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U8" s="13" t="inlineStr">
@@ -23414,7 +23414,7 @@
       </c>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I9" s="15" t="inlineStr">
@@ -23434,7 +23434,7 @@
       </c>
       <c r="L9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M9" s="15" t="inlineStr">
@@ -23474,7 +23474,7 @@
       </c>
       <c r="T9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U9" s="15" t="inlineStr">
@@ -23676,7 +23676,7 @@
       </c>
       <c r="D12" s="20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E12" s="20" t="inlineStr">
@@ -24798,7 +24798,7 @@
       </c>
       <c r="D6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" s="13" t="inlineStr">
@@ -24960,7 +24960,7 @@
       </c>
       <c r="H8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I8" s="13" t="inlineStr">
@@ -24978,7 +24978,7 @@
       </c>
       <c r="L8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M8" s="13" t="inlineStr">
@@ -25064,7 +25064,7 @@
       </c>
       <c r="L9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M9" s="15" t="inlineStr">
@@ -25100,7 +25100,7 @@
       </c>
       <c r="D10" s="20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E10" s="20" t="inlineStr">
@@ -25416,7 +25416,7 @@
       </c>
       <c r="P4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q4" s="13" t="inlineStr">
@@ -25460,7 +25460,7 @@
       </c>
       <c r="P5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q5" s="15" t="inlineStr">
@@ -25564,7 +25564,7 @@
       </c>
       <c r="P8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q8" s="13" t="inlineStr">
@@ -25608,7 +25608,7 @@
       </c>
       <c r="P9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q9" s="15" t="inlineStr">
@@ -25644,7 +25644,7 @@
       </c>
       <c r="H10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I10" s="13" t="inlineStr">
@@ -25666,7 +25666,7 @@
       </c>
       <c r="P10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q10" s="13" t="inlineStr">
@@ -25684,7 +25684,7 @@
       </c>
       <c r="T10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U10" s="13" t="inlineStr">
@@ -25716,7 +25716,7 @@
       </c>
       <c r="H11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I11" s="15" t="inlineStr">
@@ -25738,7 +25738,7 @@
       </c>
       <c r="P11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q11" s="15" t="inlineStr">
@@ -25774,7 +25774,7 @@
       </c>
       <c r="H12" s="20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I12" s="20" t="inlineStr">
@@ -26520,7 +26520,7 @@
       </c>
       <c r="L10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M10" s="13" t="inlineStr">
@@ -26592,7 +26592,7 @@
       </c>
       <c r="H11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I11" s="15" t="inlineStr">
@@ -27218,7 +27218,7 @@
       </c>
       <c r="H5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I5" s="15" t="inlineStr">
@@ -27236,7 +27236,7 @@
       </c>
       <c r="L5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M5" s="15" t="inlineStr">
@@ -27376,7 +27376,7 @@
       </c>
       <c r="H7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I7" s="15" t="inlineStr">
@@ -27394,7 +27394,7 @@
       </c>
       <c r="L7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M7" s="15" t="inlineStr">
@@ -27610,7 +27610,7 @@
       </c>
       <c r="L10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M10" s="13" t="inlineStr">
@@ -27662,7 +27662,7 @@
       </c>
       <c r="T11" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U11" s="17" t="inlineStr">
@@ -27938,7 +27938,7 @@
       </c>
       <c r="T4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U4" s="13" t="inlineStr">
@@ -27974,7 +27974,7 @@
       </c>
       <c r="L5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M5" s="15" t="inlineStr">
@@ -27996,7 +27996,7 @@
       </c>
       <c r="T5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U5" s="15" t="inlineStr">
@@ -28024,7 +28024,7 @@
       </c>
       <c r="D6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" s="13" t="inlineStr">
@@ -28060,7 +28060,7 @@
       </c>
       <c r="L6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M6" s="13" t="inlineStr">
@@ -28078,7 +28078,7 @@
       </c>
       <c r="P6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q6" s="13" t="inlineStr">
@@ -28096,7 +28096,7 @@
       </c>
       <c r="T6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U6" s="13" t="inlineStr">
@@ -28124,7 +28124,7 @@
       </c>
       <c r="D7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" s="15" t="inlineStr">
@@ -28142,7 +28142,7 @@
       </c>
       <c r="H7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I7" s="15" t="inlineStr">
@@ -28160,7 +28160,7 @@
       </c>
       <c r="L7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M7" s="15" t="inlineStr">
@@ -28178,7 +28178,7 @@
       </c>
       <c r="P7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q7" s="15" t="inlineStr">
@@ -28210,7 +28210,7 @@
       </c>
       <c r="D8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" s="13" t="inlineStr">
@@ -28228,7 +28228,7 @@
       </c>
       <c r="H8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I8" s="13" t="inlineStr">
@@ -28282,7 +28282,7 @@
       </c>
       <c r="T8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U8" s="13" t="inlineStr">
@@ -28310,7 +28310,7 @@
       </c>
       <c r="D9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E9" s="15" t="inlineStr">
@@ -28332,7 +28332,7 @@
       </c>
       <c r="L9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M9" s="15" t="inlineStr">
@@ -28350,7 +28350,7 @@
       </c>
       <c r="P9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q9" s="15" t="inlineStr">
@@ -28368,7 +28368,7 @@
       </c>
       <c r="T9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U9" s="15" t="inlineStr">
@@ -28396,7 +28396,7 @@
       </c>
       <c r="D10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E10" s="13" t="inlineStr">
@@ -28418,7 +28418,7 @@
       </c>
       <c r="L10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M10" s="13" t="inlineStr">
@@ -28454,7 +28454,7 @@
       </c>
       <c r="T10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U10" s="13" t="inlineStr">
@@ -28482,7 +28482,7 @@
       </c>
       <c r="D11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E11" s="15" t="inlineStr">
@@ -28554,7 +28554,7 @@
       </c>
       <c r="D12" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E12" s="13" t="inlineStr">
@@ -28580,7 +28580,7 @@
       </c>
       <c r="P12" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q12" s="13" t="inlineStr">
@@ -28598,7 +28598,7 @@
       </c>
       <c r="T12" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U12" s="13" t="inlineStr">
@@ -28642,7 +28642,7 @@
       </c>
       <c r="T13" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U13" s="17" t="inlineStr">
@@ -28914,7 +28914,7 @@
       </c>
       <c r="P4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q4" s="13" t="inlineStr">
@@ -28932,7 +28932,7 @@
       </c>
       <c r="T4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U4" s="13" t="inlineStr">
@@ -28986,7 +28986,7 @@
       </c>
       <c r="P5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q5" s="15" t="inlineStr">
@@ -29032,7 +29032,7 @@
       </c>
       <c r="D6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" s="13" t="inlineStr">
@@ -29076,7 +29076,7 @@
       </c>
       <c r="T6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U6" s="13" t="inlineStr">
@@ -29122,7 +29122,7 @@
       </c>
       <c r="H7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I7" s="15" t="inlineStr">
@@ -29190,7 +29190,7 @@
       </c>
       <c r="D8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" s="13" t="inlineStr">
@@ -29208,7 +29208,7 @@
       </c>
       <c r="H8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I8" s="13" t="inlineStr">
@@ -29230,7 +29230,7 @@
       </c>
       <c r="P8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q8" s="13" t="inlineStr">
@@ -29280,7 +29280,7 @@
       </c>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I9" s="15" t="inlineStr">
@@ -29306,7 +29306,7 @@
       </c>
       <c r="T9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U9" s="15" t="inlineStr">
@@ -29334,7 +29334,7 @@
       </c>
       <c r="D10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E10" s="13" t="inlineStr">
@@ -29392,7 +29392,7 @@
       </c>
       <c r="D11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E11" s="15" t="inlineStr">
@@ -29410,7 +29410,7 @@
       </c>
       <c r="H11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I11" s="15" t="inlineStr">
@@ -29454,7 +29454,7 @@
       </c>
       <c r="H12" s="20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I12" s="20" t="inlineStr">
@@ -29726,7 +29726,7 @@
       </c>
       <c r="D4" s="20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" s="20" t="inlineStr">
@@ -30216,7 +30216,7 @@
       </c>
       <c r="P7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q7" s="15" t="inlineStr">
@@ -30234,7 +30234,7 @@
       </c>
       <c r="T7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U7" s="15" t="inlineStr">
@@ -30476,7 +30476,7 @@
       </c>
       <c r="H15" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I15" s="17" t="inlineStr">
@@ -30976,7 +30976,7 @@
       </c>
       <c r="T11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U11" s="15" t="inlineStr">
@@ -31018,7 +31018,7 @@
       </c>
       <c r="T12" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U12" s="15" t="inlineStr">
@@ -31062,7 +31062,7 @@
       </c>
       <c r="T13" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U13" s="13" t="inlineStr">
@@ -31104,7 +31104,7 @@
       </c>
       <c r="T14" s="20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U14" s="20" t="inlineStr">
@@ -31558,7 +31558,7 @@
       </c>
       <c r="P10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q10" s="13" t="inlineStr">
@@ -31600,7 +31600,7 @@
       </c>
       <c r="P11" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q11" s="13" t="inlineStr">
@@ -31648,7 +31648,7 @@
       </c>
       <c r="T12" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U12" s="15" t="inlineStr">
@@ -31690,7 +31690,7 @@
       </c>
       <c r="T13" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U13" s="17" t="inlineStr">
@@ -31952,7 +31952,7 @@
       </c>
       <c r="D4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" s="13" t="inlineStr">
@@ -31970,7 +31970,7 @@
       </c>
       <c r="H4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I4" s="13" t="inlineStr">
@@ -32010,7 +32010,7 @@
       </c>
       <c r="D5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E5" s="15" t="inlineStr">
@@ -32028,7 +32028,7 @@
       </c>
       <c r="H5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I5" s="15" t="inlineStr">
@@ -32068,7 +32068,7 @@
       </c>
       <c r="D6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" s="13" t="inlineStr">
@@ -32086,7 +32086,7 @@
       </c>
       <c r="H6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I6" s="13" t="inlineStr">
@@ -32112,7 +32112,7 @@
       </c>
       <c r="T6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U6" s="13" t="inlineStr">
@@ -32144,7 +32144,7 @@
       </c>
       <c r="H7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I7" s="15" t="inlineStr">
@@ -32170,7 +32170,7 @@
       </c>
       <c r="T7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U7" s="15" t="inlineStr">
@@ -32206,7 +32206,7 @@
       </c>
       <c r="L8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M8" s="13" t="inlineStr">
@@ -32224,7 +32224,7 @@
       </c>
       <c r="P8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q8" s="13" t="inlineStr">
@@ -32242,7 +32242,7 @@
       </c>
       <c r="T8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U8" s="13" t="inlineStr">
@@ -32278,7 +32278,7 @@
       </c>
       <c r="L9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M9" s="15" t="inlineStr">
@@ -32296,7 +32296,7 @@
       </c>
       <c r="P9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q9" s="15" t="inlineStr">
@@ -32314,7 +32314,7 @@
       </c>
       <c r="T9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U9" s="15" t="inlineStr">
@@ -32350,7 +32350,7 @@
       </c>
       <c r="L10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M10" s="13" t="inlineStr">
@@ -32372,7 +32372,7 @@
       </c>
       <c r="T10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U10" s="13" t="inlineStr">
@@ -32408,7 +32408,7 @@
       </c>
       <c r="L11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M11" s="15" t="inlineStr">
@@ -32426,7 +32426,7 @@
       </c>
       <c r="P11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q11" s="15" t="inlineStr">
@@ -32466,7 +32466,7 @@
       </c>
       <c r="L12" s="20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M12" s="20" t="inlineStr">
@@ -32484,7 +32484,7 @@
       </c>
       <c r="P12" s="20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q12" s="20" t="inlineStr">
@@ -33114,7 +33114,7 @@
       </c>
       <c r="P13" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q13" s="17" t="inlineStr">
@@ -33378,7 +33378,7 @@
       </c>
       <c r="D4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" s="13" t="inlineStr">
@@ -33400,7 +33400,7 @@
       </c>
       <c r="L4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M4" s="13" t="inlineStr">
@@ -33418,7 +33418,7 @@
       </c>
       <c r="P4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q4" s="13" t="inlineStr">
@@ -33452,7 +33452,7 @@
       </c>
       <c r="D5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E5" s="15" t="inlineStr">
@@ -33474,7 +33474,7 @@
       </c>
       <c r="L5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M5" s="15" t="inlineStr">
@@ -33492,7 +33492,7 @@
       </c>
       <c r="P5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q5" s="15" t="inlineStr">
@@ -33512,7 +33512,7 @@
       </c>
       <c r="T5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U5" s="15" t="inlineStr">
@@ -33548,7 +33548,7 @@
       </c>
       <c r="L6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M6" s="13" t="inlineStr">
@@ -33566,7 +33566,7 @@
       </c>
       <c r="P6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q6" s="13" t="inlineStr">
@@ -33584,7 +33584,7 @@
       </c>
       <c r="T6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U6" s="13" t="inlineStr">
@@ -33612,7 +33612,7 @@
       </c>
       <c r="D7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" s="15" t="inlineStr">
@@ -33634,7 +33634,7 @@
       </c>
       <c r="L7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M7" s="15" t="inlineStr">
@@ -33652,7 +33652,7 @@
       </c>
       <c r="P7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q7" s="15" t="inlineStr">
@@ -33670,7 +33670,7 @@
       </c>
       <c r="T7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U7" s="15" t="inlineStr">
@@ -33702,7 +33702,7 @@
       </c>
       <c r="H8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I8" s="13" t="inlineStr">
@@ -33720,7 +33720,7 @@
       </c>
       <c r="L8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M8" s="13" t="inlineStr">
@@ -33738,7 +33738,7 @@
       </c>
       <c r="P8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q8" s="13" t="inlineStr">
@@ -33756,7 +33756,7 @@
       </c>
       <c r="T8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U8" s="13" t="inlineStr">
@@ -33784,7 +33784,7 @@
       </c>
       <c r="D9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E9" s="15" t="inlineStr">
@@ -33802,7 +33802,7 @@
       </c>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I9" s="15" t="inlineStr">
@@ -33820,7 +33820,7 @@
       </c>
       <c r="L9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M9" s="15" t="inlineStr">
@@ -33838,7 +33838,7 @@
       </c>
       <c r="P9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q9" s="15" t="inlineStr">
@@ -33870,7 +33870,7 @@
       </c>
       <c r="D10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E10" s="13" t="inlineStr">
@@ -33888,7 +33888,7 @@
       </c>
       <c r="H10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I10" s="13" t="inlineStr">
@@ -33906,7 +33906,7 @@
       </c>
       <c r="L10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M10" s="13" t="inlineStr">
@@ -33924,7 +33924,7 @@
       </c>
       <c r="P10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q10" s="13" t="inlineStr">
@@ -33956,7 +33956,7 @@
       </c>
       <c r="D11" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E11" s="17" t="inlineStr">
@@ -33974,7 +33974,7 @@
       </c>
       <c r="H11" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I11" s="17" t="inlineStr">
@@ -34246,7 +34246,7 @@
       </c>
       <c r="D4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" s="13" t="inlineStr">
@@ -34268,7 +34268,7 @@
       </c>
       <c r="L4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M4" s="13" t="inlineStr">
@@ -34286,7 +34286,7 @@
       </c>
       <c r="P4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q4" s="13" t="inlineStr">
@@ -34304,7 +34304,7 @@
       </c>
       <c r="T4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U4" s="13" t="inlineStr">
@@ -34332,7 +34332,7 @@
       </c>
       <c r="D5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E5" s="15" t="inlineStr">
@@ -34350,7 +34350,7 @@
       </c>
       <c r="H5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I5" s="15" t="inlineStr">
@@ -34368,7 +34368,7 @@
       </c>
       <c r="L5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M5" s="15" t="inlineStr">
@@ -34386,7 +34386,7 @@
       </c>
       <c r="P5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q5" s="15" t="inlineStr">
@@ -34404,7 +34404,7 @@
       </c>
       <c r="T5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U5" s="15" t="inlineStr">
@@ -34432,7 +34432,7 @@
       </c>
       <c r="D6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" s="13" t="inlineStr">
@@ -34450,7 +34450,7 @@
       </c>
       <c r="H6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I6" s="13" t="inlineStr">
@@ -34468,7 +34468,7 @@
       </c>
       <c r="L6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M6" s="13" t="inlineStr">
@@ -34486,7 +34486,7 @@
       </c>
       <c r="P6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q6" s="13" t="inlineStr">
@@ -34504,7 +34504,7 @@
       </c>
       <c r="T6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U6" s="13" t="inlineStr">
@@ -34532,7 +34532,7 @@
       </c>
       <c r="D7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" s="15" t="inlineStr">
@@ -34550,7 +34550,7 @@
       </c>
       <c r="H7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I7" s="15" t="inlineStr">
@@ -34572,7 +34572,7 @@
       </c>
       <c r="P7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q7" s="15" t="inlineStr">
@@ -34590,7 +34590,7 @@
       </c>
       <c r="T7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U7" s="15" t="inlineStr">
@@ -34618,7 +34618,7 @@
       </c>
       <c r="D8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" s="13" t="inlineStr">
@@ -34636,7 +34636,7 @@
       </c>
       <c r="H8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I8" s="13" t="inlineStr">
@@ -34658,7 +34658,7 @@
       </c>
       <c r="P8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q8" s="13" t="inlineStr">
@@ -34676,7 +34676,7 @@
       </c>
       <c r="T8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U8" s="13" t="inlineStr">
@@ -34704,7 +34704,7 @@
       </c>
       <c r="D9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E9" s="15" t="inlineStr">
@@ -34722,7 +34722,7 @@
       </c>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I9" s="15" t="inlineStr">
@@ -34744,7 +34744,7 @@
       </c>
       <c r="P9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q9" s="15" t="inlineStr">
@@ -34762,7 +34762,7 @@
       </c>
       <c r="T9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U9" s="15" t="inlineStr">
@@ -34790,7 +34790,7 @@
       </c>
       <c r="D10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E10" s="13" t="inlineStr">
@@ -34820,7 +34820,7 @@
       </c>
       <c r="T10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U10" s="13" t="inlineStr">
@@ -34882,7 +34882,7 @@
       </c>
       <c r="H12" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I12" s="13" t="inlineStr">
@@ -34928,7 +34928,7 @@
       </c>
       <c r="H13" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I13" s="17" t="inlineStr">
@@ -35236,7 +35236,7 @@
       </c>
       <c r="H5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I5" s="15" t="inlineStr">
@@ -35512,7 +35512,7 @@
       </c>
       <c r="H10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I10" s="13" t="inlineStr">
